--- a/Group2_Milestone2_PartA.xlsx
+++ b/Group2_Milestone2_PartA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eb8a75b42522a92/MOBILE WEB STRUCTURES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralle\Documents\GitHub\HIT226CodeFair_Group2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Content Inventory</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t>Should have</t>
+  </si>
+  <si>
+    <t>Could have</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +50,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -50,15 +110,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,12 +485,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:K8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Group2_Milestone2_PartA.xlsx
+++ b/Group2_Milestone2_PartA.xlsx
@@ -24,25 +24,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Content Inventory</t>
-  </si>
-  <si>
-    <t>Must have</t>
-  </si>
-  <si>
-    <t>Should have</t>
-  </si>
-  <si>
-    <t>Could have</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Competitions 2017</t>
+  </si>
+  <si>
+    <t>Entry forms</t>
+  </si>
+  <si>
+    <t>IT industry</t>
+  </si>
+  <si>
+    <t>About this site</t>
+  </si>
+  <si>
+    <t>Content Type</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>web page</t>
+  </si>
+  <si>
+    <t>Codefair 2016</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Codefair 2014</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>Code fair report</t>
+  </si>
+  <si>
+    <t>Report, Word doc</t>
+  </si>
+  <si>
+    <t>Pictures from former codefair</t>
+  </si>
+  <si>
+    <t>Code farir report</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>Content inventory</t>
+  </si>
+  <si>
+    <t>Info about this years competition</t>
+  </si>
+  <si>
+    <t>about developers and contact information</t>
+  </si>
+  <si>
+    <t>Content Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Information about Code fair for IT industry</t>
+  </si>
+  <si>
+    <t>Collection of data from previous Code fairs</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not implementet</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,58 +141,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -110,70 +171,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="God" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,48 +506,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K8"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Group2_Milestone2_PartA.xlsx
+++ b/Group2_Milestone2_PartA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Home</t>
   </si>
@@ -122,17 +122,20 @@
     <t>Not implementet</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>https://github.com/HIT226/Code-Fair-Assets/tree/master/images/originals</t>
+  </si>
+  <si>
+    <t>https://github.com/HIT226/Code-Fair-Assets/tree/master/docs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +153,14 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,10 +183,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -192,8 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,10 +523,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -521,12 +535,11 @@
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -536,9 +549,8 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,22 +561,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -574,14 +583,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -594,26 +600,20 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -623,14 +623,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -643,14 +640,11 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -663,14 +657,11 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,14 +671,11 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -697,14 +685,17 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -714,14 +705,14 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -731,14 +722,11 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -748,14 +736,14 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -768,18 +756,20 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>